--- a/REGULAR/OJT/BAYOT, ANISIA.xlsx
+++ b/REGULAR/OJT/BAYOT, ANISIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="379">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>5/18,19/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2226,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A511" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K526" sqref="K526"/>
+      <selection pane="bottomLeft" activeCell="I526" sqref="I526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2393,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>64.816000000000088</v>
+        <v>66.066000000000088</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2400,7 +2403,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.45799999999997</v>
+        <v>95.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14181,13 +14184,15 @@
       <c r="B525" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C525" s="13"/>
+      <c r="C525" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D525" s="39"/>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G525" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H525" s="39">
         <v>1</v>
@@ -14202,7 +14207,9 @@
       <c r="A526" s="40">
         <v>45108</v>
       </c>
-      <c r="B526" s="20"/>
+      <c r="B526" s="20" t="s">
+        <v>378</v>
+      </c>
       <c r="C526" s="13"/>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
@@ -14211,10 +14218,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H526" s="39"/>
+      <c r="H526" s="39">
+        <v>1</v>
+      </c>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20"/>
+      <c r="K526" s="48">
+        <v>45110</v>
+      </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">

--- a/REGULAR/OJT/BAYOT, ANISIA.xlsx
+++ b/REGULAR/OJT/BAYOT, ANISIA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="379">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1891,8 +1891,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K561" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K561"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K562" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K562"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2221,12 +2221,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K561"/>
+  <dimension ref="A2:K562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A511" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A514" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I526" sqref="I526"/>
+      <selection pane="bottomLeft" activeCell="F527" sqref="F527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14228,10 +14228,10 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B527" s="20"/>
+      <c r="A527" s="40"/>
+      <c r="B527" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
       <c r="E527" s="9"/>
@@ -14243,11 +14243,13 @@
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20"/>
+      <c r="K527" s="48">
+        <v>45121</v>
+      </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14265,7 +14267,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14283,7 +14285,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14301,7 +14303,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14319,7 +14321,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14337,7 +14339,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14355,7 +14357,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14373,7 +14375,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14391,7 +14393,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14409,7 +14411,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14427,7 +14429,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14445,7 +14447,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14463,7 +14465,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14481,7 +14483,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14499,7 +14501,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14517,7 +14519,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14535,7 +14537,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14553,7 +14555,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14571,7 +14573,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14589,7 +14591,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14607,7 +14609,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14625,7 +14627,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14643,7 +14645,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14661,7 +14663,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14679,7 +14681,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14697,7 +14699,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14715,7 +14717,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -14733,7 +14735,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -14750,7 +14752,9 @@
       <c r="K555" s="20"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40"/>
+      <c r="A556" s="40">
+        <v>45992</v>
+      </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -14830,20 +14834,36 @@
       <c r="K560" s="20"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="41"/>
-      <c r="B561" s="15"/>
-      <c r="C561" s="42"/>
-      <c r="D561" s="43"/>
+      <c r="A561" s="40"/>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
       <c r="E561" s="9"/>
-      <c r="F561" s="15"/>
+      <c r="F561" s="20"/>
       <c r="G561" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H561" s="43"/>
+      <c r="H561" s="39"/>
       <c r="I561" s="9"/>
-      <c r="J561" s="12"/>
-      <c r="K561" s="15"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="41"/>
+      <c r="B562" s="15"/>
+      <c r="C562" s="42"/>
+      <c r="D562" s="43"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="15"/>
+      <c r="G562" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H562" s="43"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="12"/>
+      <c r="K562" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
